--- a/绘师信息一览.xlsx
+++ b/绘师信息一览.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\touhoukill\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="330" windowWidth="19155" windowHeight="8460"/>
   </bookViews>
@@ -48,9 +43,6 @@
     <t>みゃけ</t>
   </si>
   <si>
-    <t>きんたろ</t>
-  </si>
-  <si>
     <t>まるかた</t>
   </si>
   <si>
@@ -1128,9 +1120,6 @@
     <t>（p号：9705615）</t>
   </si>
   <si>
-    <t>（p号：18697741）</t>
-  </si>
-  <si>
     <t>（p号：8831829）</t>
   </si>
   <si>
@@ -1564,13 +1553,38 @@
   </si>
   <si>
     <t>(p号:无) 个人id:37062</t>
+  </si>
+  <si>
+    <t>藤原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>51160511</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1579,12 +1593,10 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1676,7 +1688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1711,7 +1723,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1923,36 +1935,36 @@
   <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1961,12 +1973,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1975,12 +1987,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1989,12 +2001,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2003,15 +2015,15 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2020,12 +2032,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -2034,1904 +2046,1904 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
         <v>347</v>
-      </c>
-      <c r="C13" t="s">
-        <v>479</v>
-      </c>
-      <c r="D13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>414</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" t="s">
-        <v>348</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>225</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>379</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
         <v>381</v>
       </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>239</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>245</v>
       </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>246</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>247</v>
       </c>
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
         <v>73</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>251</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
         <v>82</v>
       </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>253</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>394</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" t="s">
         <v>85</v>
       </c>
-      <c r="D54" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>254</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
         <v>396</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>257</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>258</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>259</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
         <v>401</v>
       </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>262</v>
-      </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" t="s">
+        <v>421</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" t="s">
+        <v>434</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>308</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" t="s">
+        <v>311</v>
+      </c>
+      <c r="D110" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+      <c r="E111" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" t="s">
         <v>98</v>
       </c>
-      <c r="D63" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>263</v>
-      </c>
-      <c r="B64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>270</v>
-      </c>
-      <c r="B71" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>271</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>272</v>
-      </c>
-      <c r="B73" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>273</v>
-      </c>
-      <c r="B74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" t="s">
-        <v>423</v>
-      </c>
-      <c r="E74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>274</v>
-      </c>
-      <c r="B75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>275</v>
-      </c>
-      <c r="B76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>276</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>277</v>
-      </c>
-      <c r="B78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>278</v>
-      </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>279</v>
-      </c>
-      <c r="B80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>280</v>
-      </c>
-      <c r="B81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>281</v>
-      </c>
-      <c r="B82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>282</v>
-      </c>
-      <c r="B83" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>283</v>
-      </c>
-      <c r="B84" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>284</v>
-      </c>
-      <c r="B85" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>285</v>
-      </c>
-      <c r="B86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>286</v>
-      </c>
-      <c r="B87" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>287</v>
-      </c>
-      <c r="B88" t="s">
-        <v>290</v>
-      </c>
-      <c r="C88" t="s">
-        <v>291</v>
-      </c>
-      <c r="D88" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>288</v>
-      </c>
-      <c r="B89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" t="s">
-        <v>114</v>
-      </c>
-      <c r="D89" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>289</v>
-      </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>292</v>
-      </c>
-      <c r="B91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>293</v>
-      </c>
-      <c r="B92" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>294</v>
-      </c>
-      <c r="B93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D93" t="s">
-        <v>436</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>295</v>
-      </c>
-      <c r="B94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" t="s">
-        <v>148</v>
-      </c>
-      <c r="C96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>298</v>
-      </c>
-      <c r="B97" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>300</v>
-      </c>
-      <c r="B99" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" t="s">
-        <v>155</v>
-      </c>
-      <c r="D99" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>301</v>
-      </c>
-      <c r="B100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>302</v>
-      </c>
-      <c r="B101" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>303</v>
-      </c>
-      <c r="B102" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>304</v>
-      </c>
-      <c r="B103" t="s">
-        <v>350</v>
-      </c>
-      <c r="C103" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>305</v>
-      </c>
-      <c r="B104" t="s">
-        <v>161</v>
-      </c>
-      <c r="C104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" t="s">
-        <v>446</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>306</v>
-      </c>
-      <c r="B105" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>307</v>
-      </c>
-      <c r="B106" t="s">
-        <v>165</v>
-      </c>
-      <c r="C106" t="s">
-        <v>166</v>
-      </c>
-      <c r="D106" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>308</v>
-      </c>
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" t="s">
-        <v>200</v>
-      </c>
-      <c r="D108" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>310</v>
-      </c>
-      <c r="B109" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>311</v>
-      </c>
-      <c r="B110" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" t="s">
-        <v>312</v>
-      </c>
-      <c r="D110" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>313</v>
-      </c>
-      <c r="B111" t="s">
-        <v>173</v>
-      </c>
-      <c r="E111" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>314</v>
-      </c>
-      <c r="B112" t="s">
-        <v>174</v>
-      </c>
-      <c r="E112" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" t="s">
-        <v>175</v>
-      </c>
-      <c r="E113" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>316</v>
-      </c>
-      <c r="B114" t="s">
-        <v>176</v>
-      </c>
-      <c r="E114" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
         <v>317</v>
       </c>
-      <c r="B115" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
         <v>177</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
         <v>318</v>
-      </c>
-      <c r="B116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>319</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D117" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>320</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>321</v>
-      </c>
-      <c r="B119" t="s">
-        <v>46</v>
-      </c>
-      <c r="C119" t="s">
-        <v>91</v>
-      </c>
-      <c r="D119" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>322</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>322</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
-        <v>130</v>
-      </c>
-      <c r="D120" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>323</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>323</v>
-      </c>
-      <c r="B121" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" t="s">
         <v>180</v>
       </c>
-      <c r="D121" t="s">
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>324</v>
-      </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>130</v>
-      </c>
-      <c r="D122" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>325</v>
+      </c>
+      <c r="B124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
+      <c r="D124" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>325</v>
-      </c>
-      <c r="B123" t="s">
-        <v>181</v>
-      </c>
-      <c r="C123" t="s">
-        <v>182</v>
-      </c>
-      <c r="D123" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>326</v>
+      </c>
+      <c r="B125" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" t="s">
+        <v>183</v>
+      </c>
+      <c r="D125" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>326</v>
-      </c>
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" t="s">
-        <v>183</v>
-      </c>
-      <c r="D124" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>327</v>
-      </c>
-      <c r="B125" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>328</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
         <v>184</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D127" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>328</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>329</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" t="s">
-        <v>185</v>
-      </c>
-      <c r="D127" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>330</v>
-      </c>
-      <c r="B128" t="s">
-        <v>30</v>
-      </c>
-      <c r="C128" t="s">
-        <v>186</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>331</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>331</v>
-      </c>
-      <c r="B129" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" t="s">
-        <v>187</v>
-      </c>
-      <c r="D129" t="s">
-        <v>466</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
         <v>332</v>
-      </c>
-      <c r="B130" t="s">
-        <v>86</v>
-      </c>
-      <c r="C130" t="s">
-        <v>188</v>
-      </c>
-      <c r="D130" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>333</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D131" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>333</v>
+      </c>
+      <c r="B132" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" t="s">
+        <v>188</v>
+      </c>
+      <c r="D132" t="s">
+        <v>467</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>334</v>
-      </c>
-      <c r="B132" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" t="s">
-        <v>189</v>
-      </c>
-      <c r="D132" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" t="s">
         <v>469</v>
       </c>
-      <c r="E132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>335</v>
-      </c>
-      <c r="B133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>336</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>337</v>
+      </c>
+      <c r="B136" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" t="s">
+        <v>179</v>
+      </c>
+      <c r="D136" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>338</v>
+      </c>
+      <c r="B137" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>339</v>
+      </c>
+      <c r="B138" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" t="s">
         <v>190</v>
       </c>
-      <c r="D133" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>336</v>
-      </c>
-      <c r="B134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" t="s">
-        <v>180</v>
-      </c>
-      <c r="D134" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>337</v>
-      </c>
-      <c r="B135" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>338</v>
-      </c>
-      <c r="B136" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>339</v>
-      </c>
-      <c r="B137" t="s">
-        <v>101</v>
-      </c>
-      <c r="C137" t="s">
-        <v>85</v>
-      </c>
-      <c r="D137" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>340</v>
+      </c>
+      <c r="B139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" t="s">
+        <v>191</v>
+      </c>
+      <c r="D139" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" t="s">
-        <v>191</v>
-      </c>
-      <c r="D138" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" t="s">
+        <v>192</v>
+      </c>
+      <c r="D140" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" t="s">
+        <v>193</v>
+      </c>
+      <c r="D141" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>341</v>
-      </c>
-      <c r="B139" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" t="s">
-        <v>192</v>
-      </c>
-      <c r="D139" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>342</v>
-      </c>
-      <c r="B140" t="s">
-        <v>43</v>
-      </c>
-      <c r="C140" t="s">
-        <v>193</v>
-      </c>
-      <c r="D140" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141" t="s">
-        <v>194</v>
-      </c>
-      <c r="D141" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/绘师信息一览.xlsx
+++ b/绘师信息一览.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="482">
   <si>
     <t>博丽灵梦</t>
   </si>
@@ -1298,10 +1298,6 @@
   </si>
   <si>
     <t>（p号：1377034）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（p号：无，个人id：3080）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1573,10 +1569,17 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>東天紅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：48906838</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1934,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1953,7 +1956,7 @@
         <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D1" t="s">
         <v>196</v>
@@ -2057,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2127,10 +2130,10 @@
         <v>346</v>
       </c>
       <c r="C13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" t="s">
         <v>477</v>
-      </c>
-      <c r="D13" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2890,7 +2893,7 @@
         <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2904,7 +2907,7 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2918,7 +2921,7 @@
         <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2928,11 +2931,11 @@
       <c r="B69" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" t="s">
-        <v>415</v>
+      <c r="C69" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2960,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2988,7 +2991,7 @@
         <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3002,7 +3005,7 @@
         <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
@@ -3019,7 +3022,7 @@
         <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3061,7 +3064,7 @@
         <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3075,7 +3078,7 @@
         <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3089,7 +3092,7 @@
         <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3103,7 +3106,7 @@
         <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3159,7 +3162,7 @@
         <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3173,7 +3176,7 @@
         <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3187,7 +3190,7 @@
         <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3201,7 +3204,7 @@
         <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3229,7 +3232,7 @@
         <v>137</v>
       </c>
       <c r="D90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3243,7 +3246,7 @@
         <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3257,7 +3260,7 @@
         <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3271,7 +3274,7 @@
         <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
@@ -3288,7 +3291,7 @@
         <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3302,7 +3305,7 @@
         <v>145</v>
       </c>
       <c r="D95" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3316,7 +3319,7 @@
         <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3330,7 +3333,7 @@
         <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3344,7 +3347,7 @@
         <v>152</v>
       </c>
       <c r="D98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3358,7 +3361,7 @@
         <v>154</v>
       </c>
       <c r="D99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3372,7 +3375,7 @@
         <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3386,7 +3389,7 @@
         <v>156</v>
       </c>
       <c r="D101" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3400,7 +3403,7 @@
         <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3414,7 +3417,7 @@
         <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3428,7 +3431,7 @@
         <v>161</v>
       </c>
       <c r="D104" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
@@ -3445,7 +3448,7 @@
         <v>163</v>
       </c>
       <c r="D105" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3459,7 +3462,7 @@
         <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3473,7 +3476,7 @@
         <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3501,7 +3504,7 @@
         <v>170</v>
       </c>
       <c r="D109" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3526,7 +3529,7 @@
         <v>172</v>
       </c>
       <c r="E111" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3537,7 +3540,7 @@
         <v>173</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3548,7 +3551,7 @@
         <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3559,7 +3562,7 @@
         <v>175</v>
       </c>
       <c r="E114" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3573,7 +3576,7 @@
         <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3587,7 +3590,7 @@
         <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3601,7 +3604,7 @@
         <v>178</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3615,7 +3618,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3629,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="D119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3643,7 +3646,7 @@
         <v>129</v>
       </c>
       <c r="D120" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3657,7 +3660,7 @@
         <v>179</v>
       </c>
       <c r="D121" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3671,7 +3674,7 @@
         <v>129</v>
       </c>
       <c r="D122" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3685,7 +3688,7 @@
         <v>181</v>
       </c>
       <c r="D123" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3699,7 +3702,7 @@
         <v>182</v>
       </c>
       <c r="D124" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3713,7 +3716,7 @@
         <v>183</v>
       </c>
       <c r="D125" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3727,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3741,7 +3744,7 @@
         <v>184</v>
       </c>
       <c r="D127" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3755,7 +3758,7 @@
         <v>185</v>
       </c>
       <c r="D128" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3769,7 +3772,7 @@
         <v>186</v>
       </c>
       <c r="D129" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
@@ -3786,7 +3789,7 @@
         <v>187</v>
       </c>
       <c r="D130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3800,7 +3803,7 @@
         <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3814,7 +3817,7 @@
         <v>188</v>
       </c>
       <c r="D132" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E132" t="s">
         <v>17</v>
@@ -3831,7 +3834,7 @@
         <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3845,7 +3848,7 @@
         <v>179</v>
       </c>
       <c r="D134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3859,7 +3862,7 @@
         <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3873,7 +3876,7 @@
         <v>179</v>
       </c>
       <c r="D136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3887,7 +3890,7 @@
         <v>84</v>
       </c>
       <c r="D137" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3901,7 +3904,7 @@
         <v>190</v>
       </c>
       <c r="D138" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3915,7 +3918,7 @@
         <v>191</v>
       </c>
       <c r="D139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3943,7 +3946,7 @@
         <v>193</v>
       </c>
       <c r="D141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/绘师信息一览.xlsx
+++ b/绘师信息一览.xlsx
@@ -10,14 +10,14 @@
     <sheet name="新建文本文档" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK179" localSheetId="0">新建文本文档!$B$35</definedName>
+    <definedName name="OLE_LINK179" localSheetId="0">新建文本文档!$B$52</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="570">
   <si>
     <t>博丽灵梦</t>
   </si>
@@ -136,9 +136,6 @@
     <t>もちき</t>
   </si>
   <si>
-    <t>ファルまろ</t>
-  </si>
-  <si>
     <t>めっこ</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>八意永琳</t>
   </si>
   <si>
-    <t>岩本ゼロゴ</t>
-  </si>
-  <si>
     <t>藤原妹红</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
     <t>绵月依姬</t>
   </si>
   <si>
-    <t>PFALZ</t>
-  </si>
-  <si>
     <t>桑尼</t>
   </si>
   <si>
@@ -547,15 +538,6 @@
     <t>莲子</t>
   </si>
   <si>
-    <t>ぎん太郎</t>
-  </si>
-  <si>
-    <t>藤原</t>
-  </si>
-  <si>
-    <t>甘党</t>
-  </si>
-  <si>
     <t>NEKO</t>
   </si>
   <si>
@@ -625,10 +607,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#01001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#01002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -716,9 +694,6 @@
     <t>#07012</t>
   </si>
   <si>
-    <t>#07013</t>
-  </si>
-  <si>
     <t>#08001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -815,9 +790,6 @@
     <t>#10010</t>
   </si>
   <si>
-    <t>#10011</t>
-  </si>
-  <si>
     <t>#11001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -991,25 +963,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XWM001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XWM002</t>
-  </si>
-  <si>
-    <t>XWM003</t>
-  </si>
-  <si>
-    <t>XWM004</t>
-  </si>
-  <si>
-    <t>XWM005</t>
-  </si>
-  <si>
-    <t>XWM006</t>
-  </si>
-  <si>
     <t>#00001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1129,9 +1082,6 @@
     <t>（p号：无，个人id：457541）</t>
   </si>
   <si>
-    <t>（p号：9734150）</t>
-  </si>
-  <si>
     <t>（p号：7616113）</t>
   </si>
   <si>
@@ -1150,9 +1100,6 @@
     <t>（p号：15783828）</t>
   </si>
   <si>
-    <t>（p号：17185841）</t>
-  </si>
-  <si>
     <t>（p号：6753458）</t>
   </si>
   <si>
@@ -1165,9 +1112,6 @@
     <t>（p号：3338979）</t>
   </si>
   <si>
-    <t>（p号：41579000）</t>
-  </si>
-  <si>
     <t>（p号：10128798）</t>
   </si>
   <si>
@@ -1177,9 +1121,6 @@
     <t>（p号：16237731）</t>
   </si>
   <si>
-    <t>（p号：无，个人id：3080）</t>
-  </si>
-  <si>
     <t>（p号：16853756）</t>
   </si>
   <si>
@@ -1417,10 +1358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（p号：3470615）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>（p号：19453374）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1433,31 +1370,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（p号：16388840）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>来自东方年代记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（p号：17184292）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（p号：8937985）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（p号：12802720）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（p号：10738620）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（p号：21693827）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1582,12 +1495,851 @@
     <t>p号：48906838</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>もねてぃ!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：56844886</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>51599308</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽々斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>53707487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryosios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：50353643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，个人id：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1508165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六羽田 トモエ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancybetty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>november</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（p号：31984422）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>007</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>008</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冈崎梦美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北白河千百合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝仓理香子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡娜•安娜贝拉尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦月 &amp; 幻月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾丽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神绮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧作爱丽丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 幽香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧作幽香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人ID：134827</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poppy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人ID:3596054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・・・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>（mitei）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号： 50573343</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>べる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">p号：7874458 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c7肘 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：44923233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヨークタウンCV-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：57810973</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tengu </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：55411659</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミルキャラ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：23409861</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音無空太</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：50941526</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> みや </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽々斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：47540364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#07014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂魄妖忌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾拉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふぇっちー</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（p号：8628466）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂雲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（p号：1779336）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryosios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（p号：50353532</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命莲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腦子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（p号：27969549）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#9901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#9901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#9901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隂宅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人ID:979179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琪露诺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二岩猯藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃仙2号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽风男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：44181708</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：56463981</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NDJ00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NDJ0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NDJ0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅丽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西行寺幽幽子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古明地觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射命丸文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍青娥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>リリア</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：10207828</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蘇ふぁみ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：54003676</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼんた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：17281878</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEKO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p号：33060621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#07013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#07015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1600,6 +2352,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1935,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1950,24 +2708,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>200</v>
+      <c r="A2" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1976,12 +2734,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1990,12 +2748,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -2004,12 +2762,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2018,15 +2776,15 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2035,12 +2793,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -2049,26 +2807,26 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2077,935 +2835,936 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C13" t="s">
-        <v>476</v>
-      </c>
-      <c r="D13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>412</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>375</v>
+      <c r="C33" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>348</v>
       </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>362</v>
+      <c r="E35" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>413</v>
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>379</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>414</v>
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" t="s">
-        <v>384</v>
+      <c r="A46" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>351</v>
+      <c r="A47" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>385</v>
+      <c r="A48" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" t="s">
-        <v>387</v>
+        <v>42</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" t="s">
-        <v>79</v>
+        <v>225</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>390</v>
+        <v>358</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>393</v>
+        <v>360</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
         <v>394</v>
       </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>481</v>
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
@@ -3013,945 +3772,1237 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>423</v>
+        <v>380</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" t="s">
-        <v>426</v>
+        <v>104</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>430</v>
+        <v>401</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>433</v>
-      </c>
-      <c r="E93" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>297</v>
-      </c>
-      <c r="B97" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" t="s">
-        <v>436</v>
+      <c r="A97" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
-      </c>
-      <c r="E104" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="D105" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="D108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
-      </c>
-      <c r="E111" t="s">
-        <v>449</v>
+        <v>142</v>
+      </c>
+      <c r="C111" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
-      </c>
-      <c r="E112" t="s">
-        <v>449</v>
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
-      </c>
-      <c r="E113" t="s">
-        <v>449</v>
+        <v>145</v>
+      </c>
+      <c r="C113" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" t="s">
-        <v>449</v>
+        <v>147</v>
+      </c>
+      <c r="C114" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D116" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D117" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D120" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>455</v>
+        <v>424</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>129</v>
-      </c>
-      <c r="D122" t="s">
-        <v>456</v>
+        <v>160</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C123" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D123" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D124" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="D126" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="D127" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>329</v>
-      </c>
-      <c r="B128" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" t="s">
-        <v>185</v>
-      </c>
-      <c r="D128" t="s">
-        <v>462</v>
+      <c r="A128" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>330</v>
-      </c>
-      <c r="B129" t="s">
-        <v>47</v>
-      </c>
-      <c r="C129" t="s">
-        <v>186</v>
-      </c>
-      <c r="D129" t="s">
-        <v>463</v>
-      </c>
-      <c r="E129" t="s">
-        <v>17</v>
+      <c r="A129" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>331</v>
-      </c>
-      <c r="B130" t="s">
-        <v>85</v>
-      </c>
-      <c r="C130" t="s">
-        <v>187</v>
-      </c>
-      <c r="D130" t="s">
-        <v>464</v>
+      <c r="A130" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D131" t="s">
-        <v>465</v>
+        <v>169</v>
+      </c>
+      <c r="E131" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" t="s">
-        <v>188</v>
-      </c>
-      <c r="D132" t="s">
-        <v>466</v>
+        <v>170</v>
       </c>
       <c r="E132" t="s">
-        <v>17</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>334</v>
-      </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" t="s">
-        <v>189</v>
-      </c>
-      <c r="D133" t="s">
-        <v>467</v>
+      <c r="A133" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E133" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" t="s">
-        <v>179</v>
-      </c>
-      <c r="D134" t="s">
-        <v>468</v>
+        <v>171</v>
+      </c>
+      <c r="E134" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>336</v>
-      </c>
-      <c r="B135" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" t="s">
-        <v>179</v>
-      </c>
-      <c r="D135" t="s">
-        <v>469</v>
+      <c r="A135" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E135" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
-      </c>
-      <c r="C136" t="s">
-        <v>179</v>
-      </c>
-      <c r="D136" t="s">
-        <v>470</v>
+        <v>172</v>
+      </c>
+      <c r="E136" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>338</v>
-      </c>
-      <c r="B137" t="s">
-        <v>100</v>
-      </c>
-      <c r="C137" t="s">
-        <v>84</v>
-      </c>
-      <c r="D137" t="s">
-        <v>471</v>
+      <c r="A137" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E137" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D138" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D139" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D140" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C141" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D141" t="s">
-        <v>474</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>311</v>
+      </c>
+      <c r="B142" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>312</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>313</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" t="s">
+        <v>437</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" t="s">
+        <v>181</v>
+      </c>
+      <c r="D147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149" t="s">
+        <v>182</v>
+      </c>
+      <c r="D149" t="s">
+        <v>440</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D150" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="s">
+        <v>173</v>
+      </c>
+      <c r="D152" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>322</v>
+      </c>
+      <c r="B153" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" t="s">
+        <v>173</v>
+      </c>
+      <c r="D153" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>323</v>
+      </c>
+      <c r="B154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>324</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>325</v>
+      </c>
+      <c r="B156" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>327</v>
+      </c>
+      <c r="B158" t="s">
+        <v>62</v>
+      </c>
+      <c r="C158" t="s">
+        <v>187</v>
+      </c>
+      <c r="D158" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>